--- a/Data Analysis of Delivery Dataset.xlsx
+++ b/Data Analysis of Delivery Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P9186\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33412243-94C1-4DA9-ADA9-76B6E8040D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391EF08-F177-4585-9B23-E8A28FB5108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31477C8B-5756-467A-846F-8628DEB5C1B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="9" xr2:uid="{31477C8B-5756-467A-846F-8628DEB5C1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mini Dashboard" sheetId="10" r:id="rId1"/>
@@ -468,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,8 +520,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13475,16 +13476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13514,15 +13515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13552,15 +13553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13625,10 +13626,526 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3619157B-9373-A712-DA37-B6BFC10437ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="3223260"/>
+          <a:ext cx="3009900" cy="2123440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> days, 5 hours</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Average Delivery Time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1500" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C09CCE4-DDE4-45C0-B43C-0DD63343F231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="355600"/>
+          <a:ext cx="3644900" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="6000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1751</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="6000" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total Number of Customers</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86715B55-B284-405F-A76C-03D13ACBEF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1206500" y="3390900"/>
+          <a:ext cx="3225800" cy="1955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4200" b="1">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2589</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4200" b="1" baseline="0">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Washington Warehouse had the most deliveries.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A91D46-137B-4492-B121-F00EEB606230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="5674360"/>
+          <a:ext cx="3784600" cy="2148840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="6000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1047</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="6000" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Most orders in a month (August 2022)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E0FFC3-026A-9043-BD85-287A8D85B4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="228600"/>
+          <a:ext cx="1592580" cy="1493520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3500" b="1">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>919</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Zipcode 15241 had the most</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> orders</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13669,20 +14186,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13707,23 +14224,305 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5021A0DD-1892-F50E-36FD-F3180B872156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10454640" y="960120"/>
+          <a:ext cx="2506980" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Customers that didn't reorder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> had slower deliveries (3 days, 3 hours) on average than customers that reordered (2 days, 19 hours). </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63198BA9-FDA7-BB35-9B55-4E01E14CDD10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8580120" y="205740"/>
+          <a:ext cx="3040380" cy="2087880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Orders were delivered fastest</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> in</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>November (2 days, 2 hours)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Conversely, orders were delivered slowest in May (6 days, 7 hours)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11388D0-8130-A7A6-C00E-EB68EF007DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5052060" y="190500"/>
+          <a:ext cx="3017520" cy="2560320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="7000" b="1"/>
+            <a:t>302</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Washington</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> warehouse has the most deliveries for Zipcode 15241</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13750,15 +14549,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13784,23 +14583,147 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D0C4D2-D9BB-B510-75B7-BCE35152C12A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="190500"/>
+          <a:ext cx="3741420" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>There were considerably</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> less orders in the Winter and Spring than in the Autumn and Summer.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>However, the average delivery speed was fairly constant across seasons, although the delivery speed in the Spring was slightly more efficient than other seasons, and the delivery speed in the Winter was slightly less efficient than other seasons.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Also, across Autumn and Summer, the number of deliveries and delivery speed were similar.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13823,6 +14746,177 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB3FEA6-ADD9-AE7D-522E-3E966720A537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="198120"/>
+          <a:ext cx="2446020" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2200" b="1">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 days, 14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2200" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> hours</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>On average, McKees Rocks had the fastest delivery time.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F623B281-FA79-4309-85E2-65C8F20F7F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120140" y="3436620"/>
+          <a:ext cx="2407920" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3500" b="1">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2589</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3500" b="1" baseline="0">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Washington Warehouse had the most deliveries.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14274,14 +15368,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEDE66F-9F8D-4BEC-918B-8453409500DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14289,8 +15384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D538D1A-8192-4C43-853E-FDB04DF3A210}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14555,8 +15650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71198C09-B7BA-4117-863E-0BDE50085675}">
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14629,7 +15724,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>15007</v>
       </c>
       <c r="C3" s="2">
@@ -14675,7 +15770,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>15010</v>
       </c>
       <c r="C4" s="2">
@@ -14721,7 +15816,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>15017</v>
       </c>
       <c r="C5" s="2">
@@ -14767,7 +15862,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>15031</v>
       </c>
       <c r="C6" s="2">
@@ -14813,7 +15908,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>15035</v>
       </c>
       <c r="C7" s="2">
@@ -14859,7 +15954,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>15044</v>
       </c>
       <c r="C8" s="2">
@@ -14905,7 +16000,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>15055</v>
       </c>
       <c r="C9" s="2">
@@ -14951,7 +16046,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>15057</v>
       </c>
       <c r="C10" s="2">
@@ -14997,7 +16092,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>15063</v>
       </c>
       <c r="C11" s="2">
@@ -15043,7 +16138,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>15068</v>
       </c>
       <c r="C12" s="2">
@@ -15089,7 +16184,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>15071</v>
       </c>
       <c r="C13" s="2">
@@ -15135,7 +16230,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>15084</v>
       </c>
       <c r="C14" s="2">
@@ -15181,7 +16276,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <v>15090</v>
       </c>
       <c r="C15" s="2">
@@ -15227,7 +16322,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
+      <c r="B16" s="37">
         <v>15101</v>
       </c>
       <c r="C16" s="2">
@@ -15273,7 +16368,7 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="38">
+      <c r="B17" s="37">
         <v>15102</v>
       </c>
       <c r="C17" s="2">
@@ -15319,7 +16414,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <v>15106</v>
       </c>
       <c r="C18" s="2">
@@ -15365,7 +16460,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>15108</v>
       </c>
       <c r="C19" s="2">
@@ -15411,7 +16506,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>15112</v>
       </c>
       <c r="C20" s="2">
@@ -15457,7 +16552,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>15116</v>
       </c>
       <c r="C21" s="2">
@@ -15503,7 +16598,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
+      <c r="B22" s="37">
         <v>15120</v>
       </c>
       <c r="C22" s="2">
@@ -15549,7 +16644,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="38">
+      <c r="B23" s="37">
         <v>15122</v>
       </c>
       <c r="C23" s="2">
@@ -15595,7 +16690,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="38">
+      <c r="B24" s="37">
         <v>15129</v>
       </c>
       <c r="C24" s="2">
@@ -15641,7 +16736,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="38">
+      <c r="B25" s="37">
         <v>15136</v>
       </c>
       <c r="C25" s="2">
@@ -15687,7 +16782,7 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="38">
+      <c r="B26" s="37">
         <v>15143</v>
       </c>
       <c r="C26" s="2">
@@ -15733,7 +16828,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="38">
+      <c r="B27" s="37">
         <v>15144</v>
       </c>
       <c r="C27" s="2">
@@ -15779,7 +16874,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="38">
+      <c r="B28" s="37">
         <v>15145</v>
       </c>
       <c r="C28" s="2">
@@ -15825,7 +16920,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="38">
+      <c r="B29" s="37">
         <v>15146</v>
       </c>
       <c r="C29" s="2">
@@ -15871,7 +16966,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="38">
+      <c r="B30" s="37">
         <v>15147</v>
       </c>
       <c r="C30" s="2">
@@ -15917,7 +17012,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="38">
+      <c r="B31" s="37">
         <v>15201</v>
       </c>
       <c r="C31" s="2">
@@ -15963,7 +17058,7 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="38">
+      <c r="B32" s="37">
         <v>15202</v>
       </c>
       <c r="C32" s="2">
@@ -16009,7 +17104,7 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>15203</v>
       </c>
       <c r="C33" s="2">
@@ -16055,7 +17150,7 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38">
+      <c r="B34" s="37">
         <v>15204</v>
       </c>
       <c r="C34" s="2">
@@ -16101,7 +17196,7 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="38">
+      <c r="B35" s="37">
         <v>15205</v>
       </c>
       <c r="C35" s="2">
@@ -16147,7 +17242,7 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="38">
+      <c r="B36" s="37">
         <v>15206</v>
       </c>
       <c r="C36" s="2">
@@ -16193,7 +17288,7 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="38">
+      <c r="B37" s="37">
         <v>15207</v>
       </c>
       <c r="C37" s="2">
@@ -16239,7 +17334,7 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="38">
+      <c r="B38" s="37">
         <v>15208</v>
       </c>
       <c r="C38" s="2">
@@ -16285,7 +17380,7 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="38">
+      <c r="B39" s="37">
         <v>15209</v>
       </c>
       <c r="C39" s="2">
@@ -16331,7 +17426,7 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="38">
+      <c r="B40" s="37">
         <v>15210</v>
       </c>
       <c r="C40" s="2">
@@ -16377,7 +17472,7 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="38">
+      <c r="B41" s="37">
         <v>15211</v>
       </c>
       <c r="C41" s="2">
@@ -16423,7 +17518,7 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="38">
+      <c r="B42" s="37">
         <v>15212</v>
       </c>
       <c r="C42" s="2">
@@ -16469,7 +17564,7 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="38">
+      <c r="B43" s="37">
         <v>15213</v>
       </c>
       <c r="C43" s="2">
@@ -16515,7 +17610,7 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="38">
+      <c r="B44" s="37">
         <v>15214</v>
       </c>
       <c r="C44" s="2">
@@ -16561,7 +17656,7 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="38">
+      <c r="B45" s="37">
         <v>15215</v>
       </c>
       <c r="C45" s="2">
@@ -16607,7 +17702,7 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="38">
+      <c r="B46" s="37">
         <v>15216</v>
       </c>
       <c r="C46" s="2">
@@ -16653,7 +17748,7 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="38">
+      <c r="B47" s="37">
         <v>15217</v>
       </c>
       <c r="C47" s="2">
@@ -16699,7 +17794,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="38">
+      <c r="B48" s="37">
         <v>15218</v>
       </c>
       <c r="C48" s="2">
@@ -16745,7 +17840,7 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="38">
+      <c r="B49" s="37">
         <v>15219</v>
       </c>
       <c r="C49" s="2">
@@ -16791,7 +17886,7 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="38">
+      <c r="B50" s="37">
         <v>15220</v>
       </c>
       <c r="C50" s="2">
@@ -16837,7 +17932,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="38">
+      <c r="B51" s="37">
         <v>15221</v>
       </c>
       <c r="C51" s="2">
@@ -16883,7 +17978,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="38">
+      <c r="B52" s="37">
         <v>15222</v>
       </c>
       <c r="C52" s="2">
@@ -16929,7 +18024,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="38">
+      <c r="B53" s="37">
         <v>15223</v>
       </c>
       <c r="C53" s="2">
@@ -16975,7 +18070,7 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="38">
+      <c r="B54" s="37">
         <v>15224</v>
       </c>
       <c r="C54" s="2">
@@ -17021,7 +18116,7 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="38">
+      <c r="B55" s="37">
         <v>15226</v>
       </c>
       <c r="C55" s="2">
@@ -17067,7 +18162,7 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="38">
+      <c r="B56" s="37">
         <v>15227</v>
       </c>
       <c r="C56" s="2">
@@ -17113,7 +18208,7 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="38">
+      <c r="B57" s="37">
         <v>15228</v>
       </c>
       <c r="C57" s="2">
@@ -17159,7 +18254,7 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="38">
+      <c r="B58" s="37">
         <v>15229</v>
       </c>
       <c r="C58" s="2">
@@ -17205,7 +18300,7 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="38">
+      <c r="B59" s="37">
         <v>15232</v>
       </c>
       <c r="C59" s="2">
@@ -17251,7 +18346,7 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="38">
+      <c r="B60" s="37">
         <v>15233</v>
       </c>
       <c r="C60" s="2">
@@ -17297,7 +18392,7 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="38">
+      <c r="B61" s="37">
         <v>15234</v>
       </c>
       <c r="C61" s="2">
@@ -17343,7 +18438,7 @@
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="38">
+      <c r="B62" s="37">
         <v>15235</v>
       </c>
       <c r="C62" s="2">
@@ -17389,7 +18484,7 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="38">
+      <c r="B63" s="37">
         <v>15236</v>
       </c>
       <c r="C63" s="2">
@@ -17435,7 +18530,7 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="38">
+      <c r="B64" s="37">
         <v>15237</v>
       </c>
       <c r="C64" s="2">
@@ -17481,7 +18576,7 @@
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="38">
+      <c r="B65" s="37">
         <v>15238</v>
       </c>
       <c r="C65" s="2">
@@ -17527,7 +18622,7 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="38">
+      <c r="B66" s="37">
         <v>15239</v>
       </c>
       <c r="C66" s="2">
@@ -17573,7 +18668,7 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="38">
+      <c r="B67" s="37">
         <v>15241</v>
       </c>
       <c r="C67" s="2">
@@ -17619,7 +18714,7 @@
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="38">
+      <c r="B68" s="37">
         <v>15243</v>
       </c>
       <c r="C68" s="2">
@@ -17665,7 +18760,7 @@
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="38">
+      <c r="B69" s="37">
         <v>15301</v>
       </c>
       <c r="C69" s="2">
@@ -17711,7 +18806,7 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="38">
+      <c r="B70" s="37">
         <v>15317</v>
       </c>
       <c r="C70" s="2">
@@ -17757,7 +18852,7 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="38">
+      <c r="B71" s="37">
         <v>15321</v>
       </c>
       <c r="C71" s="2">
@@ -17803,7 +18898,7 @@
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="38">
+      <c r="B72" s="37">
         <v>15330</v>
       </c>
       <c r="C72" s="2">
@@ -17849,7 +18944,7 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="38">
+      <c r="B73" s="37">
         <v>15332</v>
       </c>
       <c r="C73" s="2">
@@ -17895,7 +18990,7 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="38">
+      <c r="B74" s="37">
         <v>15342</v>
       </c>
       <c r="C74" s="2">
@@ -17941,7 +19036,7 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="38">
+      <c r="B75" s="37">
         <v>15367</v>
       </c>
       <c r="C75" s="2">
@@ -17987,7 +19082,7 @@
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="38">
+      <c r="B76" s="37">
         <v>16001</v>
       </c>
       <c r="C76" s="2">
@@ -18033,7 +19128,7 @@
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="38">
+      <c r="B77" s="37">
         <v>16002</v>
       </c>
       <c r="C77" s="2">
@@ -18079,7 +19174,7 @@
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="38">
+      <c r="B78" s="37">
         <v>16046</v>
       </c>
       <c r="C78" s="2">
@@ -18125,7 +19220,7 @@
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="38">
+      <c r="B79" s="37">
         <v>16066</v>
       </c>
       <c r="C79" s="2">
@@ -18171,7 +19266,7 @@
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="38">
+      <c r="B80" s="37">
         <v>16101</v>
       </c>
       <c r="C80" s="2">
@@ -18217,7 +19312,7 @@
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="38">
+      <c r="B81" s="37">
         <v>26501</v>
       </c>
       <c r="C81" s="2">
@@ -18263,7 +19358,7 @@
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="38">
+      <c r="B82" s="37">
         <v>29680</v>
       </c>
       <c r="C82" s="2">
@@ -18309,7 +19404,7 @@
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="38">
+      <c r="B83" s="37">
         <v>44223</v>
       </c>
       <c r="C83" s="2">
@@ -18355,7 +19450,7 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="38">
+      <c r="B84" s="37">
         <v>44266</v>
       </c>
       <c r="C84" s="2">
@@ -18401,7 +19496,7 @@
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B85" s="38">
+      <c r="B85" s="37">
         <v>44312</v>
       </c>
       <c r="C85" s="2">
@@ -18447,7 +19542,7 @@
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="38">
+      <c r="B86" s="37">
         <v>44320</v>
       </c>
       <c r="C86" s="2">
@@ -18493,7 +19588,7 @@
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="38">
+      <c r="B87" s="37">
         <v>44321</v>
       </c>
       <c r="C87" s="2">
@@ -18539,7 +19634,7 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="38">
+      <c r="B88" s="37">
         <v>44420</v>
       </c>
       <c r="C88" s="2">
@@ -18585,7 +19680,7 @@
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B89" s="38">
+      <c r="B89" s="37">
         <v>44442</v>
       </c>
       <c r="C89" s="2">
@@ -18631,7 +19726,7 @@
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="38">
+      <c r="B90" s="37">
         <v>44446</v>
       </c>
       <c r="C90" s="2">
@@ -18677,7 +19772,7 @@
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B91" s="38">
+      <c r="B91" s="37">
         <v>44471</v>
       </c>
       <c r="C91" s="2">
@@ -18723,7 +19818,7 @@
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B92" s="38">
+      <c r="B92" s="37">
         <v>44484</v>
       </c>
       <c r="C92" s="2">
@@ -18769,7 +19864,7 @@
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B93" s="38">
+      <c r="B93" s="37">
         <v>44485</v>
       </c>
       <c r="C93" s="2">
@@ -18815,43 +19910,43 @@
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="38">
+      <c r="B94" s="37">
         <v>44505</v>
       </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2">
-        <v>0</v>
-      </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2">
-        <v>0</v>
-      </c>
-      <c r="M94" s="2">
-        <v>1</v>
-      </c>
-      <c r="N94" s="2">
+      <c r="C94" s="38">
+        <v>0</v>
+      </c>
+      <c r="D94" s="38">
+        <v>0</v>
+      </c>
+      <c r="E94" s="38">
+        <v>0</v>
+      </c>
+      <c r="F94" s="38">
+        <v>0</v>
+      </c>
+      <c r="G94" s="38">
+        <v>0</v>
+      </c>
+      <c r="H94" s="38">
+        <v>0</v>
+      </c>
+      <c r="I94" s="38">
+        <v>0</v>
+      </c>
+      <c r="J94" s="38">
+        <v>0</v>
+      </c>
+      <c r="K94" s="38">
+        <v>0</v>
+      </c>
+      <c r="L94" s="38">
+        <v>0</v>
+      </c>
+      <c r="M94" s="38">
+        <v>1</v>
+      </c>
+      <c r="N94" s="38">
         <v>0</v>
       </c>
       <c r="O94" s="6"/>
@@ -18861,7 +19956,7 @@
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="38">
+      <c r="B95" s="37">
         <v>44509</v>
       </c>
       <c r="C95" s="2">
@@ -18907,7 +20002,7 @@
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="38">
+      <c r="B96" s="37">
         <v>44511</v>
       </c>
       <c r="C96" s="2">
@@ -18953,7 +20048,7 @@
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B97" s="38">
+      <c r="B97" s="37">
         <v>44512</v>
       </c>
       <c r="C97" s="2">
@@ -18999,7 +20094,7 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="38">
+      <c r="B98" s="37">
         <v>44514</v>
       </c>
       <c r="C98" s="2">
@@ -19045,7 +20140,7 @@
       </c>
     </row>
     <row r="99" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="38">
+      <c r="B99" s="37">
         <v>44515</v>
       </c>
       <c r="C99" s="2">
@@ -19099,47 +20194,47 @@
         <v>310</v>
       </c>
       <c r="D100" s="3">
-        <f t="shared" ref="D100:N100" si="0">SUM(D3:D99)</f>
+        <f>SUM(D3:D99)</f>
         <v>482</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(E3:E99)</f>
         <v>681</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(F3:F99)</f>
         <v>677</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(G3:G99)</f>
         <v>755</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(H3:H99)</f>
         <v>998</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(I3:I99)</f>
         <v>990</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(J3:J99)</f>
         <v>1309</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(K3:K99)</f>
         <v>1189</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(L3:L99)</f>
         <v>1191</v>
       </c>
       <c r="M100" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M3:M99)</f>
         <v>635</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(N3:N99)</f>
         <v>263</v>
       </c>
       <c r="O100" s="5"/>
@@ -19155,12 +20250,29 @@
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 Internal Use Only&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Fidelity Bank Internal Use Only</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{26E98CBC-F973-4D03-9F97-E1D43DFC078E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Total Orders By Zipcode'!C100:N100</xm:f>
+              <xm:sqref>O100</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" maxAxisType="group" xr2:uid="{56ECE5AA-6FD7-4B16-BD3C-F8B265F8E32A}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -19561,22 +20673,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{26E98CBC-F973-4D03-9F97-E1D43DFC078E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Total Orders By Zipcode'!C100:N100</xm:f>
-              <xm:sqref>O100</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -19674,9 +20770,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -19686,7 +20783,7 @@
   <dimension ref="B2:K1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61433,8 +62530,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -61444,7 +62542,7 @@
   <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65931,11 +67029,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="O5:O82" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -65945,7 +67045,7 @@
   <dimension ref="B2:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67257,8 +68357,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -67267,8 +68369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BC7B8A-3743-449E-BFE5-B490257EF1BF}">
   <dimension ref="B2:Z100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="E77" workbookViewId="0">
+      <selection activeCell="Z100" sqref="Z100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74731,7 +75833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:26" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:26" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B100" s="34" t="s">
         <v>13</v>
       </c>
@@ -74824,7 +75926,7 @@
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="Z100" s="37">
+      <c r="Z100" s="39">
         <f t="shared" si="2"/>
         <v>9480</v>
       </c>
@@ -74838,6 +75940,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{D0E0EDC3-922A-461E-8963-E736EDB6320B}">
+          <x14:colorSeries rgb="FFC00000"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <xm:f>'Rate of Order Increase by Zip'!D2:Y2</xm:f>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Rate of Order Increase by Zip'!D100:Y100</xm:f>
+              <xm:sqref>C100</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{92C5953D-6C8B-4133-8586-B9D31FB4B0C8}">
           <x14:colorSeries rgb="FFC00000"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -75239,23 +76358,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{D0E0EDC3-922A-461E-8963-E736EDB6320B}">
-          <x14:colorSeries rgb="FFC00000"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <xm:f>'Rate of Order Increase by Zip'!D2:Y2</xm:f>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Rate of Order Increase by Zip'!D100:Y100</xm:f>
-              <xm:sqref>C100</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -75267,7 +76369,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75352,9 +76454,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Analysis of Delivery Dataset.xlsx
+++ b/Data Analysis of Delivery Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P9186\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391EF08-F177-4585-9B23-E8A28FB5108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DE615-865B-4750-95A0-9742B6FB850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="9" xr2:uid="{31477C8B-5756-467A-846F-8628DEB5C1B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31477C8B-5756-467A-846F-8628DEB5C1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mini Dashboard" sheetId="10" r:id="rId1"/>
@@ -468,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,7 +521,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -15368,8 +15367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEDE66F-9F8D-4BEC-918B-8453409500DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15384,7 +15383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D538D1A-8192-4C43-853E-FDB04DF3A210}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -19913,40 +19912,40 @@
       <c r="B94" s="37">
         <v>44505</v>
       </c>
-      <c r="C94" s="38">
-        <v>0</v>
-      </c>
-      <c r="D94" s="38">
-        <v>0</v>
-      </c>
-      <c r="E94" s="38">
-        <v>0</v>
-      </c>
-      <c r="F94" s="38">
-        <v>0</v>
-      </c>
-      <c r="G94" s="38">
-        <v>0</v>
-      </c>
-      <c r="H94" s="38">
-        <v>0</v>
-      </c>
-      <c r="I94" s="38">
-        <v>0</v>
-      </c>
-      <c r="J94" s="38">
-        <v>0</v>
-      </c>
-      <c r="K94" s="38">
-        <v>0</v>
-      </c>
-      <c r="L94" s="38">
-        <v>0</v>
-      </c>
-      <c r="M94" s="38">
-        <v>1</v>
-      </c>
-      <c r="N94" s="38">
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2">
         <v>0</v>
       </c>
       <c r="O94" s="6"/>
@@ -20190,51 +20189,51 @@
         <v>13</v>
       </c>
       <c r="C100" s="3">
-        <f>SUM(C3:C99)</f>
+        <f t="shared" ref="C100:N100" si="0">SUM(C3:C99)</f>
         <v>310</v>
       </c>
       <c r="D100" s="3">
-        <f>SUM(D3:D99)</f>
+        <f t="shared" si="0"/>
         <v>482</v>
       </c>
       <c r="E100" s="3">
-        <f>SUM(E3:E99)</f>
+        <f t="shared" si="0"/>
         <v>681</v>
       </c>
       <c r="F100" s="3">
-        <f>SUM(F3:F99)</f>
+        <f t="shared" si="0"/>
         <v>677</v>
       </c>
       <c r="G100" s="3">
-        <f>SUM(G3:G99)</f>
+        <f t="shared" si="0"/>
         <v>755</v>
       </c>
       <c r="H100" s="3">
-        <f>SUM(H3:H99)</f>
+        <f t="shared" si="0"/>
         <v>998</v>
       </c>
       <c r="I100" s="3">
-        <f>SUM(I3:I99)</f>
+        <f t="shared" si="0"/>
         <v>990</v>
       </c>
       <c r="J100" s="3">
-        <f>SUM(J3:J99)</f>
+        <f t="shared" si="0"/>
         <v>1309</v>
       </c>
       <c r="K100" s="3">
-        <f>SUM(K3:K99)</f>
+        <f t="shared" si="0"/>
         <v>1189</v>
       </c>
       <c r="L100" s="3">
-        <f>SUM(L3:L99)</f>
+        <f t="shared" si="0"/>
         <v>1191</v>
       </c>
       <c r="M100" s="3">
-        <f>SUM(M3:M99)</f>
+        <f t="shared" si="0"/>
         <v>635</v>
       </c>
       <c r="N100" s="4">
-        <f>SUM(N3:N99)</f>
+        <f t="shared" si="0"/>
         <v>263</v>
       </c>
       <c r="O100" s="5"/>
@@ -20257,22 +20256,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{26E98CBC-F973-4D03-9F97-E1D43DFC078E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Total Orders By Zipcode'!C100:N100</xm:f>
-              <xm:sqref>O100</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" maxAxisType="group" xr2:uid="{56ECE5AA-6FD7-4B16-BD3C-F8B265F8E32A}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -20673,6 +20656,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{26E98CBC-F973-4D03-9F97-E1D43DFC078E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Total Orders By Zipcode'!C100:N100</xm:f>
+              <xm:sqref>O100</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -75926,7 +75925,7 @@
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="Z100" s="39">
+      <c r="Z100" s="38">
         <f t="shared" si="2"/>
         <v>9480</v>
       </c>
@@ -75940,23 +75939,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{D0E0EDC3-922A-461E-8963-E736EDB6320B}">
-          <x14:colorSeries rgb="FFC00000"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <xm:f>'Rate of Order Increase by Zip'!D2:Y2</xm:f>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Rate of Order Increase by Zip'!D100:Y100</xm:f>
-              <xm:sqref>C100</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{92C5953D-6C8B-4133-8586-B9D31FB4B0C8}">
           <x14:colorSeries rgb="FFC00000"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -76358,6 +76340,23 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{D0E0EDC3-922A-461E-8963-E736EDB6320B}">
+          <x14:colorSeries rgb="FFC00000"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <xm:f>'Rate of Order Increase by Zip'!D2:Y2</xm:f>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Rate of Order Increase by Zip'!D100:Y100</xm:f>
+              <xm:sqref>C100</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/Data Analysis of Delivery Dataset.xlsx
+++ b/Data Analysis of Delivery Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P9186\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DE615-865B-4750-95A0-9742B6FB850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3B524-97E9-473E-A7B3-9DA4CCAF89A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31477C8B-5756-467A-846F-8628DEB5C1B0}"/>
   </bookViews>
@@ -15367,8 +15367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEDE66F-9F8D-4BEC-918B-8453409500DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20256,6 +20256,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{26E98CBC-F973-4D03-9F97-E1D43DFC078E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Total Orders By Zipcode'!C100:N100</xm:f>
+              <xm:sqref>O100</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" maxAxisType="group" xr2:uid="{56ECE5AA-6FD7-4B16-BD3C-F8B265F8E32A}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -20656,22 +20672,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{26E98CBC-F973-4D03-9F97-E1D43DFC078E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Total Orders By Zipcode'!C100:N100</xm:f>
-              <xm:sqref>O100</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -75939,6 +75939,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{D0E0EDC3-922A-461E-8963-E736EDB6320B}">
+          <x14:colorSeries rgb="FFC00000"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <xm:f>'Rate of Order Increase by Zip'!D2:Y2</xm:f>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Rate of Order Increase by Zip'!D100:Y100</xm:f>
+              <xm:sqref>C100</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{92C5953D-6C8B-4133-8586-B9D31FB4B0C8}">
           <x14:colorSeries rgb="FFC00000"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -76340,23 +76357,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" high="1" negative="1" maxAxisType="group" xr2:uid="{D0E0EDC3-922A-461E-8963-E736EDB6320B}">
-          <x14:colorSeries rgb="FFC00000"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <xm:f>'Rate of Order Increase by Zip'!D2:Y2</xm:f>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Rate of Order Increase by Zip'!D100:Y100</xm:f>
-              <xm:sqref>C100</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
